--- a/AKSUE (TRY).xlsx
+++ b/AKSUE (TRY).xlsx
@@ -5253,6 +5253,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-33385743</v>
+      </c>
       <c r="C108">
         <v>28751791.091045506</v>
       </c>
@@ -5664,6 +5667,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>53421980</v>
+      </c>
       <c r="C5">
         <v>33410539.70956238</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>73488496.86482279</v>
       </c>
       <c r="F5">
-        <v>55634828.654218264</v>
+        <v>59809879</v>
       </c>
       <c r="G5">
         <v>38251095.43865116</v>
@@ -8523,6 +8529,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>20011440.29043762</v>
+      </c>
       <c r="C5">
         <v>19976064.33691658</v>
       </c>
@@ -8530,10 +8539,10 @@
         <v>13434475.372645801</v>
       </c>
       <c r="E5">
-        <v>17853668.210604526</v>
+        <v>13678617.86482279</v>
       </c>
       <c r="F5">
-        <v>17383733.215567105</v>
+        <v>21558783.56134884</v>
       </c>
       <c r="G5">
         <v>22604295.990287885</v>
@@ -11274,6 +11283,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>67100597.86482279</v>
+      </c>
       <c r="C5">
         <v>68647941.135734</v>
       </c>
@@ -11284,7 +11296,7 @@
         <v>73488496.86482279</v>
       </c>
       <c r="F5">
-        <v>73975518.28441986</v>
+        <v>78150568.63020161</v>
       </c>
       <c r="G5">
         <v>84665209.47287634</v>
